--- a/RegressaoGCP/RegressaoGCP/Data/users.xlsx
+++ b/RegressaoGCP/RegressaoGCP/Data/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RegressaoGCP - Copia\RegressaoGCP\RegressaoGCP\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RegressaoGCP\RegressaoGCP\RegressaoGCP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F3297-7FE6-4FA4-B79A-F10C3A71578C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E7BA42-36B1-42AB-A1D0-C692C05A8F0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{67F26324-6355-473A-AC05-86D7D325EBC8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Status</t>
   </si>
@@ -33,9 +33,6 @@
     <t>CicloInicio</t>
   </si>
   <si>
-    <t>natura</t>
-  </si>
-  <si>
     <t>Natura@4</t>
   </si>
   <si>
@@ -52,13 +49,52 @@
   </si>
   <si>
     <t>CicloFim</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Aprovado</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>Encerrado</t>
+  </si>
+  <si>
+    <t>Rascunho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Processamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro no Processamento </t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Preco</t>
+  </si>
+  <si>
+    <t>Redutor</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +118,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,17 +160,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -447,33 +510,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9A96C7-90FD-49A3-9B37-C16105F67EBC}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -482,21 +546,36 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>123154421</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>10403</v>
+        <v>41806</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -507,9 +586,214 @@
       <c r="G2" s="1">
         <v>201819</v>
       </c>
+      <c r="H2" s="8">
+        <v>50134521</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="7">
+        <v>70</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123154421</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41806</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>201819</v>
+      </c>
+      <c r="G3" s="1">
+        <v>201819</v>
+      </c>
+      <c r="H3" s="8">
+        <v>50134521</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <v>75</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123154421</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41806</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>201819</v>
+      </c>
+      <c r="G4" s="1">
+        <v>201819</v>
+      </c>
+      <c r="H4" s="8">
+        <v>50134521</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7">
+        <v>80</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123154421</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41806</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>201819</v>
+      </c>
+      <c r="G5" s="1">
+        <v>201819</v>
+      </c>
+      <c r="H5" s="8">
+        <v>50134521</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7">
+        <v>85</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>123154421</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41806</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>201819</v>
+      </c>
+      <c r="G6" s="1">
+        <v>201819</v>
+      </c>
+      <c r="H6" s="8">
+        <v>50134521</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7">
+        <v>90</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>123154421</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41806</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>201819</v>
+      </c>
+      <c r="G7" s="1">
+        <v>201819</v>
+      </c>
+      <c r="H7" s="8">
+        <v>50134521</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7">
+        <v>95</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
